--- a/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69DAD6F7-A353-4C45-AB7F-DCF85A462B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD259D32-5BD4-45AB-901F-D6C663DC7FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{932F0B8F-377D-4299-A080-2D8A732911E6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63978490-787A-4749-A13C-9176C1247E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="285">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -79,811 +79,820 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>Si alguna vez</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>Si alguna vez</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>2,31%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30643A7F-E5DA-4788-9F6F-D304BF2AE220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3857BC7-A9CB-417E-A0F3-DCBDE3272B81}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1551,13 +1560,13 @@
         <v>2309545</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1572,13 +1581,13 @@
         <v>1031723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1291</v>
@@ -1587,13 +1596,13 @@
         <v>1315113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2329</v>
@@ -1602,18 +1611,18 @@
         <v>2346836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1625,7 +1634,7 @@
         <v>6687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>41</v>
@@ -1658,10 +1667,10 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,13 +1685,13 @@
         <v>31609</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>158</v>
@@ -1691,13 +1700,13 @@
         <v>160116</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>190</v>
@@ -1706,13 +1715,13 @@
         <v>191725</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,13 +1736,13 @@
         <v>1655116</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>1386</v>
@@ -1742,13 +1751,13 @@
         <v>1418105</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>2997</v>
@@ -1757,13 +1766,13 @@
         <v>3073221</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1787,13 @@
         <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1554</v>
@@ -1793,13 +1802,13 @@
         <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3203</v>
@@ -1808,18 +1817,18 @@
         <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1831,13 +1840,13 @@
         <v>1714</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1984,13 +1993,13 @@
         <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -1999,13 +2008,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>979</v>
@@ -2014,13 +2023,13 @@
         <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,10 +2064,10 @@
         <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2067,13 +2076,13 @@
         <v>22874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2097,13 @@
         <v>55303</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>245</v>
@@ -2103,13 +2112,13 @@
         <v>251449</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -2118,13 +2127,13 @@
         <v>306752</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2148,13 @@
         <v>3210849</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>3039</v>
@@ -2154,28 +2163,28 @@
         <v>3115266</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>6190</v>
       </c>
       <c r="N18" s="7">
-        <v>6326114</v>
+        <v>6326115</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2199,13 @@
         <v>3276544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3297</v>
@@ -2205,33 +2214,33 @@
         <v>3379198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2250,7 +2259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61681372-8E91-42C6-802F-320647698A71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95129C3-B95E-4B01-A269-58D1AE2A7028}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2267,7 +2276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2374,13 +2383,13 @@
         <v>877</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2389,13 +2398,13 @@
         <v>5289</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2404,13 +2413,13 @@
         <v>6166</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2434,13 @@
         <v>15968</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -2440,13 +2449,13 @@
         <v>28360</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -2455,13 +2464,13 @@
         <v>44328</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2485,13 @@
         <v>954741</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H6" s="7">
         <v>1212</v>
@@ -2491,13 +2500,13 @@
         <v>1299949</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M6" s="7">
         <v>2100</v>
@@ -2506,13 +2515,13 @@
         <v>2254691</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2536,13 @@
         <v>971586</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1243</v>
@@ -2542,13 +2551,13 @@
         <v>1333599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2148</v>
@@ -2557,18 +2566,18 @@
         <v>2305185</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2583,10 +2592,10 @@
         <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -2595,13 +2604,13 @@
         <v>18981</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -2610,13 +2619,13 @@
         <v>25320</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2640,13 @@
         <v>44604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H9" s="7">
         <v>133</v>
@@ -2646,13 +2655,13 @@
         <v>137164</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M9" s="7">
         <v>175</v>
@@ -2661,13 +2670,13 @@
         <v>181768</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2691,13 @@
         <v>1905100</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>1477</v>
@@ -2697,13 +2706,13 @@
         <v>1594264</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>3278</v>
@@ -2712,13 +2721,13 @@
         <v>3499365</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2742,13 @@
         <v>1956044</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1628</v>
@@ -2748,13 +2757,13 @@
         <v>1750409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3477</v>
@@ -2763,18 +2772,18 @@
         <v>3706454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2789,7 +2798,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -2801,13 +2810,13 @@
         <v>8697</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2816,13 +2825,13 @@
         <v>8697</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2846,13 @@
         <v>17512</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -2852,13 +2861,13 @@
         <v>64607</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -2867,13 +2876,13 @@
         <v>82119</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2897,13 @@
         <v>461512</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -2903,13 +2912,13 @@
         <v>383408</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>764</v>
@@ -2918,13 +2927,13 @@
         <v>844919</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2948,13 @@
         <v>479024</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>410</v>
@@ -2954,13 +2963,13 @@
         <v>456711</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>846</v>
@@ -2969,13 +2978,13 @@
         <v>935735</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +3001,13 @@
         <v>7216</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3007,13 +3016,13 @@
         <v>32967</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3022,13 +3031,13 @@
         <v>40183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3052,13 @@
         <v>78084</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -3058,13 +3067,13 @@
         <v>230131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>291</v>
@@ -3073,13 +3082,13 @@
         <v>308216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3103,13 @@
         <v>3321353</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H18" s="7">
         <v>3032</v>
@@ -3109,13 +3118,13 @@
         <v>3277622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7">
         <v>6142</v>
@@ -3124,13 +3133,13 @@
         <v>6598975</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3154,13 @@
         <v>3406654</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3281</v>
@@ -3160,13 +3169,13 @@
         <v>3540720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6471</v>
@@ -3175,18 +3184,18 @@
         <v>6947374</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DE7329-CADF-4CCA-8DBD-EABC938564E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2DE528-5DB4-4E55-B6B1-A9D479126355}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3222,7 +3231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,13 +3338,13 @@
         <v>959</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3344,13 +3353,13 @@
         <v>940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3359,13 +3368,13 @@
         <v>1899</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3389,13 @@
         <v>6897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3395,13 +3404,13 @@
         <v>5165</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3410,13 +3419,13 @@
         <v>12062</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3440,13 @@
         <v>742695</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H6" s="7">
         <v>884</v>
@@ -3446,13 +3455,13 @@
         <v>986315</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M6" s="7">
         <v>1634</v>
@@ -3461,13 +3470,13 @@
         <v>1729011</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3491,13 @@
         <v>750551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>890</v>
@@ -3497,13 +3506,13 @@
         <v>992420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1648</v>
@@ -3512,18 +3521,18 @@
         <v>1742972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3535,13 +3544,13 @@
         <v>1059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3550,13 +3559,13 @@
         <v>14713</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3565,13 +3574,13 @@
         <v>15772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3595,13 @@
         <v>15386</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
         <v>71</v>
@@ -3601,13 +3610,13 @@
         <v>70183</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M9" s="7">
         <v>86</v>
@@ -3616,13 +3625,13 @@
         <v>85569</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3646,13 @@
         <v>2050219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>1812</v>
@@ -3667,13 +3676,13 @@
         <v>3943172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3697,13 @@
         <v>2066663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1898</v>
@@ -3703,13 +3712,13 @@
         <v>1977850</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3842</v>
@@ -3718,18 +3727,18 @@
         <v>4044512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3744,10 +3753,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -3756,13 +3765,13 @@
         <v>3037</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3771,13 +3780,13 @@
         <v>3037</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3801,13 @@
         <v>7595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3807,13 +3816,13 @@
         <v>28822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3822,13 +3831,13 @@
         <v>36417</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3852,13 @@
         <v>538219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3858,13 +3867,13 @@
         <v>517281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>987</v>
@@ -3873,13 +3882,13 @@
         <v>1055501</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3903,13 @@
         <v>545814</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -3909,13 +3918,13 @@
         <v>549140</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1026</v>
@@ -3924,13 +3933,13 @@
         <v>1094955</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3956,13 @@
         <v>2018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3962,13 +3971,13 @@
         <v>18690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3977,13 +3986,13 @@
         <v>20708</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4007,13 @@
         <v>29878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -4013,13 +4022,13 @@
         <v>104170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -4028,13 +4037,13 @@
         <v>134048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4058,13 @@
         <v>3331132</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="H18" s="7">
         <v>3191</v>
@@ -4064,13 +4073,13 @@
         <v>3396550</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
         <v>6361</v>
@@ -4079,13 +4088,13 @@
         <v>6727683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4109,13 @@
         <v>3363028</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3314</v>
@@ -4115,13 +4124,13 @@
         <v>3519410</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6516</v>
@@ -4130,18 +4139,18 @@
         <v>6882439</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD259D32-5BD4-45AB-901F-D6C663DC7FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD1EFF07-9A97-4BCB-AD3E-00469ACE016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63978490-787A-4749-A13C-9176C1247E1B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{606B3AC3-CF67-45C0-B3E4-B2F852A9C1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="284">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -79,820 +79,817 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,67%</t>
+    <t>0,69%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>Si alguna vez</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>Si alguna vez</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3857BC7-A9CB-417E-A0F3-DCBDE3272B81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F9D8F9-F640-429B-A4A4-055503587A39}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1634,13 +1631,13 @@
         <v>6687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -1649,13 +1646,13 @@
         <v>9452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -1664,13 +1661,13 @@
         <v>16139</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,13 +1682,13 @@
         <v>31609</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>158</v>
@@ -1700,13 +1697,13 @@
         <v>160116</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>190</v>
@@ -1715,13 +1712,13 @@
         <v>191725</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,16 +1730,16 @@
         <v>1611</v>
       </c>
       <c r="D10" s="7">
-        <v>1655116</v>
+        <v>1655117</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>1386</v>
@@ -1751,13 +1748,13 @@
         <v>1418105</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>2997</v>
@@ -1766,13 +1763,13 @@
         <v>3073221</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,7 +1781,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -1828,7 +1825,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1840,13 +1837,13 @@
         <v>1714</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1861,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -1870,13 +1867,13 @@
         <v>3805</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,13 +1888,13 @@
         <v>19104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -1906,13 +1903,13 @@
         <v>61562</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -1921,13 +1918,13 @@
         <v>80666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1939,13 @@
         <v>530590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>391</v>
@@ -1957,13 +1954,13 @@
         <v>412759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>900</v>
@@ -1972,13 +1969,13 @@
         <v>943349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2043,13 @@
         <v>10392</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2061,13 +2058,13 @@
         <v>12483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2076,13 +2073,13 @@
         <v>22874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2094,13 @@
         <v>55303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>245</v>
@@ -2112,13 +2109,13 @@
         <v>251449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -2127,13 +2124,13 @@
         <v>306752</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,16 +2142,16 @@
         <v>3151</v>
       </c>
       <c r="D18" s="7">
-        <v>3210849</v>
+        <v>3210848</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>3039</v>
@@ -2163,13 +2160,13 @@
         <v>3115266</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>6190</v>
@@ -2178,13 +2175,13 @@
         <v>6326115</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,7 +2193,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -2240,7 +2237,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2259,7 +2256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95129C3-B95E-4B01-A269-58D1AE2A7028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0078657-5E79-48EF-8B62-4F4090BC7512}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2276,7 +2273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2383,13 +2380,13 @@
         <v>877</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2398,13 +2395,13 @@
         <v>5289</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2413,13 +2410,13 @@
         <v>6166</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2431,13 @@
         <v>15968</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -2449,13 +2446,13 @@
         <v>28360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -2464,13 +2461,13 @@
         <v>44328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2482,13 @@
         <v>954741</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H6" s="7">
         <v>1212</v>
@@ -2500,13 +2497,13 @@
         <v>1299949</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
         <v>2100</v>
@@ -2515,13 +2512,13 @@
         <v>2254691</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2586,13 @@
         <v>6339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -2604,13 +2601,13 @@
         <v>18981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -2619,13 +2616,13 @@
         <v>25320</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2637,13 @@
         <v>44604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
         <v>133</v>
@@ -2655,13 +2652,13 @@
         <v>137164</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>175</v>
@@ -2670,13 +2667,13 @@
         <v>181768</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,28 +2688,28 @@
         <v>1905100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>1477</v>
       </c>
       <c r="I10" s="7">
-        <v>1594264</v>
+        <v>1594265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>3278</v>
@@ -2721,13 +2718,13 @@
         <v>3499365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2751,7 @@
         <v>1628</v>
       </c>
       <c r="I11" s="7">
-        <v>1750409</v>
+        <v>1750410</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -2783,7 +2780,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2798,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -2810,13 +2807,13 @@
         <v>8697</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2825,13 +2822,13 @@
         <v>8697</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2843,13 @@
         <v>17512</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -2861,13 +2858,13 @@
         <v>64607</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -2876,13 +2873,13 @@
         <v>82119</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2894,13 @@
         <v>461512</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -2912,13 +2909,13 @@
         <v>383408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>764</v>
@@ -2927,13 +2924,13 @@
         <v>844919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2998,13 @@
         <v>7216</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -3016,13 +3013,13 @@
         <v>32967</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3031,13 +3028,13 @@
         <v>40183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3049,13 @@
         <v>78084</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -3067,13 +3064,13 @@
         <v>230131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>291</v>
@@ -3082,13 +3079,13 @@
         <v>308216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3100,13 @@
         <v>3321353</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>3032</v>
@@ -3118,13 +3115,13 @@
         <v>3277622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M18" s="7">
         <v>6142</v>
@@ -3133,13 +3130,13 @@
         <v>6598975</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3192,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2DE528-5DB4-4E55-B6B1-A9D479126355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E501E4-2CF8-46A1-AEB6-E7EADB068519}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3231,7 +3228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3338,13 +3335,13 @@
         <v>959</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3353,13 +3350,13 @@
         <v>940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3368,13 +3365,13 @@
         <v>1899</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3386,13 @@
         <v>6897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3404,13 +3401,13 @@
         <v>5165</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3419,13 +3416,13 @@
         <v>12062</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3437,13 @@
         <v>742695</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>884</v>
@@ -3455,13 +3452,13 @@
         <v>986315</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>1634</v>
@@ -3470,13 +3467,13 @@
         <v>1729011</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3541,13 @@
         <v>1059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3559,13 +3556,13 @@
         <v>14713</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3574,13 +3571,13 @@
         <v>15772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3592,13 @@
         <v>15386</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>71</v>
@@ -3610,13 +3607,13 @@
         <v>70183</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M9" s="7">
         <v>86</v>
@@ -3625,13 +3622,13 @@
         <v>85569</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3643,13 @@
         <v>2050219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
         <v>1812</v>
@@ -3661,13 +3658,13 @@
         <v>1892954</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>3740</v>
@@ -3676,13 +3673,13 @@
         <v>3943172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,7 +3735,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3753,10 +3750,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -3765,13 +3762,13 @@
         <v>3037</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3780,10 +3777,10 @@
         <v>3037</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>250</v>
@@ -3801,13 +3798,13 @@
         <v>7595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3888,7 +3885,7 @@
         <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3953,13 @@
         <v>2018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3971,13 +3968,13 @@
         <v>18690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3986,13 +3983,13 @@
         <v>20708</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4004,13 @@
         <v>29878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -4028,7 +4025,7 @@
         <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -4037,13 +4034,13 @@
         <v>134048</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4055,13 @@
         <v>3331132</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H18" s="7">
         <v>3191</v>
@@ -4073,13 +4070,13 @@
         <v>3396550</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M18" s="7">
         <v>6361</v>
@@ -4088,13 +4085,13 @@
         <v>6727683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,7 +4147,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD1EFF07-9A97-4BCB-AD3E-00469ACE016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF79C4E-5CB8-4F98-A82D-57B75F687F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{606B3AC3-CF67-45C0-B3E4-B2F852A9C1EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC54BB0F-044B-4BF8-A5A2-AC01FE2C9A85}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="282">
   <si>
     <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -79,817 +79,811 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>Si alguna vez</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>No nunca</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>Si alguna vez</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>No nunca</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>Población según si han utilizado en los últimos 5 años cabinas o lámparas de rayos ultravioletas en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>98,08%</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F9D8F9-F640-429B-A4A4-055503587A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2417402-54B2-4174-9C13-B8AA5F64EF40}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1557,13 +1551,13 @@
         <v>2309545</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,13 +1572,13 @@
         <v>1031723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>1291</v>
@@ -1593,13 +1587,13 @@
         <v>1315113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>2329</v>
@@ -1608,18 +1602,18 @@
         <v>2346836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1631,13 +1625,13 @@
         <v>6687</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -1646,13 +1640,13 @@
         <v>9452</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -1661,13 +1655,13 @@
         <v>16139</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1676,13 @@
         <v>31609</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>158</v>
@@ -1697,13 +1691,13 @@
         <v>160116</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>190</v>
@@ -1712,13 +1706,13 @@
         <v>191725</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,16 +1724,16 @@
         <v>1611</v>
       </c>
       <c r="D10" s="7">
-        <v>1655117</v>
+        <v>1655116</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>1386</v>
@@ -1748,13 +1742,13 @@
         <v>1418105</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>2997</v>
@@ -1763,13 +1757,13 @@
         <v>3073221</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,16 +1775,16 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>1554</v>
@@ -1799,13 +1793,13 @@
         <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>3203</v>
@@ -1814,18 +1808,18 @@
         <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1837,13 +1831,13 @@
         <v>1714</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1858,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -1867,13 +1861,13 @@
         <v>3805</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1882,13 @@
         <v>19104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -1903,13 +1897,13 @@
         <v>61562</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -1918,13 +1912,13 @@
         <v>80666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,13 +1933,13 @@
         <v>530590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>391</v>
@@ -1954,13 +1948,13 @@
         <v>412759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>900</v>
@@ -1969,13 +1963,13 @@
         <v>943349</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +1984,13 @@
         <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -2005,13 +1999,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>979</v>
@@ -2020,13 +2014,13 @@
         <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2037,13 @@
         <v>10392</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2058,13 +2052,13 @@
         <v>12483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2073,13 +2067,13 @@
         <v>22874</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2088,13 @@
         <v>55303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>245</v>
@@ -2109,13 +2103,13 @@
         <v>251449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>299</v>
@@ -2124,13 +2118,13 @@
         <v>306752</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,16 +2136,16 @@
         <v>3151</v>
       </c>
       <c r="D18" s="7">
-        <v>3210848</v>
+        <v>3210849</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>3039</v>
@@ -2160,28 +2154,28 @@
         <v>3115266</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>6190</v>
       </c>
       <c r="N18" s="7">
-        <v>6326115</v>
+        <v>6326114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,16 +2187,16 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>3297</v>
@@ -2211,33 +2205,33 @@
         <v>3379198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0078657-5E79-48EF-8B62-4F4090BC7512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08B7C40-49B7-4E5A-B3EB-569DD51524D9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2273,7 +2267,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2380,13 +2374,13 @@
         <v>877</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2395,13 +2389,13 @@
         <v>5289</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2410,13 +2404,13 @@
         <v>6166</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2425,13 @@
         <v>15968</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -2446,13 +2440,13 @@
         <v>28360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -2461,13 +2455,13 @@
         <v>44328</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2476,13 @@
         <v>954741</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7">
         <v>1212</v>
@@ -2497,13 +2491,13 @@
         <v>1299949</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M6" s="7">
         <v>2100</v>
@@ -2512,13 +2506,13 @@
         <v>2254691</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2527,13 @@
         <v>971586</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>1243</v>
@@ -2548,13 +2542,13 @@
         <v>1333599</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>2148</v>
@@ -2563,18 +2557,18 @@
         <v>2305185</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2586,13 +2580,13 @@
         <v>6339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -2601,13 +2595,13 @@
         <v>18981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -2616,10 +2610,10 @@
         <v>25320</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>146</v>
@@ -2640,10 +2634,10 @@
         <v>147</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H9" s="7">
         <v>133</v>
@@ -2652,13 +2646,13 @@
         <v>137164</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M9" s="7">
         <v>175</v>
@@ -2667,13 +2661,13 @@
         <v>181768</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,28 +2682,28 @@
         <v>1905100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>1477</v>
       </c>
       <c r="I10" s="7">
-        <v>1594265</v>
+        <v>1594264</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>3278</v>
@@ -2718,13 +2712,13 @@
         <v>3499365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,28 +2733,28 @@
         <v>1956044</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>1628</v>
       </c>
       <c r="I11" s="7">
-        <v>1750410</v>
+        <v>1750409</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>3477</v>
@@ -2769,18 +2763,18 @@
         <v>3706454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2795,7 +2789,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -2807,13 +2801,13 @@
         <v>8697</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -2822,13 +2816,13 @@
         <v>8697</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2837,7 @@
         <v>17512</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>171</v>
@@ -2945,13 +2939,13 @@
         <v>479024</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>410</v>
@@ -2960,13 +2954,13 @@
         <v>456711</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>846</v>
@@ -2975,13 +2969,13 @@
         <v>935735</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,7 +2995,7 @@
         <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>189</v>
@@ -3013,13 +3007,13 @@
         <v>32967</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3028,13 +3022,13 @@
         <v>40183</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3043,13 @@
         <v>78084</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -3064,13 +3058,13 @@
         <v>230131</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>291</v>
@@ -3079,13 +3073,13 @@
         <v>308216</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3094,13 @@
         <v>3321353</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>3032</v>
@@ -3115,13 +3109,13 @@
         <v>3277622</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M18" s="7">
         <v>6142</v>
@@ -3130,13 +3124,13 @@
         <v>6598975</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3145,13 @@
         <v>3406654</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>3281</v>
@@ -3166,13 +3160,13 @@
         <v>3540720</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>6471</v>
@@ -3181,18 +3175,18 @@
         <v>6947374</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E501E4-2CF8-46A1-AEB6-E7EADB068519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE61C8AC-6E36-4E25-B9C0-12648573695C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3228,7 +3222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,13 +3329,13 @@
         <v>959</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3350,13 +3344,13 @@
         <v>940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3365,13 +3359,13 @@
         <v>1899</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3380,13 @@
         <v>6897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3401,13 +3395,13 @@
         <v>5165</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -3416,13 +3410,13 @@
         <v>12062</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3431,13 @@
         <v>742695</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>884</v>
@@ -3452,13 +3446,13 @@
         <v>986315</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>1634</v>
@@ -3467,13 +3461,13 @@
         <v>1729011</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3482,13 @@
         <v>750551</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>890</v>
@@ -3503,13 +3497,13 @@
         <v>992420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>1648</v>
@@ -3518,18 +3512,18 @@
         <v>1742972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3541,13 +3535,13 @@
         <v>1059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3556,13 +3550,13 @@
         <v>14713</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3571,13 +3565,13 @@
         <v>15772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3586,13 @@
         <v>15386</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="H9" s="7">
         <v>71</v>
@@ -3628,7 +3622,7 @@
         <v>237</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3637,13 @@
         <v>2050219</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>1812</v>
@@ -3658,13 +3652,13 @@
         <v>1892954</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>3740</v>
@@ -3673,13 +3667,13 @@
         <v>3943172</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3688,13 @@
         <v>2066663</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>1898</v>
@@ -3709,13 +3703,13 @@
         <v>1977850</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
         <v>3842</v>
@@ -3724,18 +3718,18 @@
         <v>4044512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3750,10 +3744,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -3762,13 +3756,13 @@
         <v>3037</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -3777,13 +3771,13 @@
         <v>3037</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3792,13 @@
         <v>7595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3813,13 +3807,13 @@
         <v>28822</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3828,13 +3822,13 @@
         <v>36417</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3843,13 @@
         <v>538219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3864,13 +3858,13 @@
         <v>517281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>987</v>
@@ -3879,13 +3873,13 @@
         <v>1055501</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3894,13 @@
         <v>545814</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -3915,13 +3909,13 @@
         <v>549140</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>1026</v>
@@ -3930,13 +3924,13 @@
         <v>1094955</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,13 +3947,13 @@
         <v>2018</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3968,13 +3962,13 @@
         <v>18690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3983,13 +3977,13 @@
         <v>20708</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3998,13 @@
         <v>29878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -4019,13 +4013,13 @@
         <v>104170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -4034,13 +4028,13 @@
         <v>134048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4049,13 @@
         <v>3331132</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>3191</v>
@@ -4070,13 +4064,13 @@
         <v>3396550</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>6361</v>
@@ -4085,13 +4079,13 @@
         <v>6727683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4100,13 @@
         <v>3363028</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>3314</v>
@@ -4121,13 +4115,13 @@
         <v>3519410</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>6516</v>
@@ -4136,18 +4130,18 @@
         <v>6882439</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q45B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF79C4E-5CB8-4F98-A82D-57B75F687F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CF2CEC-3DBC-4A44-BB8A-EBC1E68AB2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC54BB0F-044B-4BF8-A5A2-AC01FE2C9A85}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FC653400-3262-42E7-9566-37EC606E6F17}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2417402-54B2-4174-9C13-B8AA5F64EF40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A995229A-F7F5-423A-9544-70C243626F7D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1548,7 +1548,7 @@
         <v>2293</v>
       </c>
       <c r="N6" s="7">
-        <v>2309545</v>
+        <v>2309544</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1599,7 +1599,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1724,7 +1724,7 @@
         <v>1611</v>
       </c>
       <c r="D10" s="7">
-        <v>1655116</v>
+        <v>1655117</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
@@ -1775,7 +1775,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
@@ -2136,7 +2136,7 @@
         <v>3151</v>
       </c>
       <c r="D18" s="7">
-        <v>3210849</v>
+        <v>3210848</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>105</v>
@@ -2151,7 +2151,7 @@
         <v>3039</v>
       </c>
       <c r="I18" s="7">
-        <v>3115266</v>
+        <v>3115265</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>108</v>
@@ -2166,7 +2166,7 @@
         <v>6190</v>
       </c>
       <c r="N18" s="7">
-        <v>6326114</v>
+        <v>6326115</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>111</v>
@@ -2187,7 +2187,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -2202,7 +2202,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -2217,7 +2217,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -2250,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08B7C40-49B7-4E5A-B3EB-569DD51524D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC2D7A3-4DA3-4C2E-BB10-CB9F5C89586D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3205,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE61C8AC-6E36-4E25-B9C0-12648573695C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4317F041-A98B-4450-8602-F3A8BFFA5147}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3664,7 +3664,7 @@
         <v>3740</v>
       </c>
       <c r="N10" s="7">
-        <v>3943172</v>
+        <v>3943173</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>106</v>
@@ -3715,7 +3715,7 @@
         <v>3842</v>
       </c>
       <c r="N11" s="7">
-        <v>4044512</v>
+        <v>4044513</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -4061,7 +4061,7 @@
         <v>3191</v>
       </c>
       <c r="I18" s="7">
-        <v>3396550</v>
+        <v>3396551</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>277</v>
@@ -4112,7 +4112,7 @@
         <v>3314</v>
       </c>
       <c r="I19" s="7">
-        <v>3519410</v>
+        <v>3519411</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
